--- a/SRC/BackTest/data/AILabxTest2_3_info_300_20250411.xlsx
+++ b/SRC/BackTest/data/AILabxTest2_3_info_300_20250411.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>pnl_ratio</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>w_dd</t>
+  </si>
+  <si>
+    <t>trend_score(close,25)*0.05+(roc(close,5)+roc(close,10))*0.05+ma(volume,5)/ma(volume,20)</t>
+  </si>
+  <si>
+    <t>roc(close, 21)&gt; 0.21</t>
   </si>
 </sst>
 </file>
@@ -1040,13 +1046,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H301"/>
+  <dimension ref="A1:J301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="21.8888888888889" customWidth="1"/>
@@ -1081,7 +1087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>2.84630931766785</v>
       </c>
@@ -1106,8 +1112,11 @@
       <c r="H2">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2.81409359410141</v>
       </c>
@@ -1131,6 +1140,9 @@
       </c>
       <c r="H3">
         <v>0.21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -8883,7 +8895,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H301">
-    <sortState ref="A2:H301">
+    <sortState ref="A1:H301">
       <sortCondition ref="A2" descending="1"/>
     </sortState>
     <extLst/>
